--- a/Tools/LIFEnet/NXr_Events scenario_007 All Routine calls wait for Routine call.xlsx
+++ b/Tools/LIFEnet/NXr_Events scenario_007 All Routine calls wait for Routine call.xlsx
@@ -1226,7 +1226,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1367,6 +1367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12555,7 +12558,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13134,8 +13137,8 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="15">
-        <v>19</v>
+      <c r="G18" s="51">
+        <v>1</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -13166,8 +13169,8 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="15">
-        <v>19</v>
+      <c r="G19" s="51">
+        <v>3</v>
       </c>
       <c r="H19" s="16">
         <v>0</v>
@@ -13200,8 +13203,8 @@
         <v>98</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="15">
-        <v>19</v>
+      <c r="G20" s="51">
+        <v>86</v>
       </c>
       <c r="H20" s="16">
         <v>0</v>
@@ -13234,8 +13237,8 @@
         <v>98</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="15">
-        <v>19</v>
+      <c r="G21" s="51">
+        <v>86</v>
       </c>
       <c r="H21" s="16">
         <v>0</v>
@@ -13268,8 +13271,8 @@
         <v>98</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="15">
-        <v>19</v>
+      <c r="G22" s="51">
+        <v>86</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -13302,8 +13305,8 @@
       <c r="F23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="15">
-        <v>19</v>
+      <c r="G23" s="51">
+        <v>41</v>
       </c>
       <c r="H23" s="16">
         <v>0</v>
@@ -13336,8 +13339,8 @@
       <c r="F24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="15">
-        <v>19</v>
+      <c r="G24" s="51">
+        <v>5</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
